--- a/OrangeHRM_Project/src/test/resources/TestData/Locator_Data.xlsx
+++ b/OrangeHRM_Project/src/test/resources/TestData/Locator_Data.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM2\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AddEmployeePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -82,6 +83,150 @@
   </si>
   <si>
     <t>//*[text()='Required']</t>
+  </si>
+  <si>
+    <t>txt_lastname</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>input[placeholder='Last Name']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Last Name']</t>
+  </si>
+  <si>
+    <t>oxd-input oxd-input--active orangehrm-lastname</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>txt_firstname</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>input[placeholder='First Name']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='First Name']</t>
+  </si>
+  <si>
+    <t>oxd-input oxd-input--active orangehrm-firstname</t>
+  </si>
+  <si>
+    <t>txt_middlename</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>input[placeholder='Middle Name']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Middle Name']</t>
+  </si>
+  <si>
+    <t>oxd-input oxd-input--active orangehrm-middlename</t>
+  </si>
+  <si>
+    <t>txt_empid</t>
+  </si>
+  <si>
+    <t>div[class='oxd-input-group oxd-input-field-bottom-space'] div input[class='oxd-input oxd-input--active']</t>
+  </si>
+  <si>
+    <t>//*[text()='Employee Id']/ancestor::*[contains(@class,'input-field-bottom-space')]/descendant::input</t>
+  </si>
+  <si>
+    <t>oxd-input oxd-input--active</t>
+  </si>
+  <si>
+    <t>save_btn</t>
+  </si>
+  <si>
+    <t>button[type='submit']</t>
+  </si>
+  <si>
+    <t>//*[contains(.,'Add Employee')]/parent::*[contains(@class,'orangehrm-card-container')]/descendant::button[contains(.,'Save')]</t>
+  </si>
+  <si>
+    <t>oxd-button oxd-button--medium oxd-button--secondary orangehrm-left-space</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>cancel_btn</t>
+  </si>
+  <si>
+    <t>button[class='oxd-button oxd-button--medium oxd-button--ghost']</t>
+  </si>
+  <si>
+    <t>//*[contains(.,'Add Employee')]/parent::*[contains(@class,'orangehrm-card-container')]/descendant::button[contains(.,'Cancel')]</t>
+  </si>
+  <si>
+    <t>oxd-button oxd-button--medium oxd-button--ghost</t>
+  </si>
+  <si>
+    <t>pim_module</t>
+  </si>
+  <si>
+    <t>.oxd-main-menu-item.active</t>
+  </si>
+  <si>
+    <t>//a[contains(@href,'PimModule')]</t>
+  </si>
+  <si>
+    <t>oxd-main-menu-item active</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>addEmp_Submodule</t>
+  </si>
+  <si>
+    <t>li[class='oxd-topbar-body-nav-tab --visited'] a[class='oxd-topbar-body-nav-tab-item']</t>
+  </si>
+  <si>
+    <t>//a[text()='Add Employee']</t>
+  </si>
+  <si>
+    <t>oxd-topbar-body-nav-tab-item</t>
+  </si>
+  <si>
+    <t>Add Employee</t>
+  </si>
+  <si>
+    <t>Add Employ</t>
+  </si>
+  <si>
+    <t>select_photo</t>
+  </si>
+  <si>
+    <t>//input[@type='file'][@class='oxd-file-input']</t>
+  </si>
+  <si>
+    <t>addEmp_heading</t>
+  </si>
+  <si>
+    <t>.oxd-text.oxd-text--h6.orangehrm-main-title</t>
+  </si>
+  <si>
+    <t>//h6[text()='Add Employee']</t>
+  </si>
+  <si>
+    <t>oxd-text oxd-text--h6 orangehrm-main-title</t>
+  </si>
+  <si>
+    <t>h6</t>
   </si>
 </sst>
 </file>
@@ -132,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -142,6 +287,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,7 +591,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -536,4 +687,240 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.55469" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.33203" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.44141" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.66406" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.886719" style="2"/>
+    <col min="8" max="8" width="12.55469" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.886719" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" ht="43.2">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/OrangeHRM_Project/src/test/resources/TestData/Locator_Data.xlsx
+++ b/OrangeHRM_Project/src/test/resources/TestData/Locator_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -49,42 +49,96 @@
     <t>partiallinktext</t>
   </si>
   <si>
-    <t>un</t>
+    <t>txt_username</t>
   </si>
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>pwd</t>
+    <t>input[placeholder='username']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='username']</t>
+  </si>
+  <si>
+    <t>oxd-input oxd-input--active</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>txt_password</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>login</t>
+    <t>input[placeholder='password']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='password']</t>
+  </si>
+  <si>
+    <t>login_btn</t>
+  </si>
+  <si>
+    <t>button[type='submit']</t>
   </si>
   <si>
     <t>//button[@type='submit']</t>
   </si>
   <si>
-    <t>heading</t>
+    <t>oxd-button oxd-button--medium oxd-button--main orangehrm-login-button</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>page_heading</t>
+  </si>
+  <si>
+    <t>.oxd-text.oxd-text--h5.orangehrm-login-title</t>
   </si>
   <si>
     <t>//h5[text()='Login']</t>
   </si>
   <si>
-    <t>invalid</t>
+    <t>oxd-text oxd-text--h5 orangehrm-login-title</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>invalid_txt</t>
+  </si>
+  <si>
+    <t>.oxd-text.oxd-text--p.oxd-alert-content-text</t>
   </si>
   <si>
     <t>//*[text()='Invalid credentials']</t>
   </si>
   <si>
-    <t>required</t>
+    <t>oxd-text oxd-text--p oxd-alert-content-text</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>required_msg</t>
+  </si>
+  <si>
+    <t>.oxd-text.oxd-text--span.oxd-input-field-error-message.oxd-input-group__message</t>
   </si>
   <si>
     <t>//*[text()='Required']</t>
   </si>
   <si>
+    <t>oxd-text oxd-text--span oxd-input-field-error-message oxd-input-group__message</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
     <t>txt_lastname</t>
   </si>
   <si>
@@ -100,9 +154,6 @@
     <t>oxd-input oxd-input--active orangehrm-lastname</t>
   </si>
   <si>
-    <t>input</t>
-  </si>
-  <si>
     <t>txt_firstname</t>
   </si>
   <si>
@@ -142,22 +193,13 @@
     <t>//*[text()='Employee Id']/ancestor::*[contains(@class,'input-field-bottom-space')]/descendant::input</t>
   </si>
   <si>
-    <t>oxd-input oxd-input--active</t>
-  </si>
-  <si>
     <t>save_btn</t>
   </si>
   <si>
-    <t>button[type='submit']</t>
-  </si>
-  <si>
     <t>//*[contains(.,'Add Employee')]/parent::*[contains(@class,'orangehrm-card-container')]/descendant::button[contains(.,'Save')]</t>
   </si>
   <si>
     <t>oxd-button oxd-button--medium oxd-button--secondary orangehrm-left-space</t>
-  </si>
-  <si>
-    <t>button</t>
   </si>
   <si>
     <t>cancel_btn</t>
@@ -285,11 +327,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -591,8 +633,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -600,31 +642,31 @@
     <col min="1" max="1" width="13.33203" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.777344" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.77734" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.66406" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.886719" style="2"/>
     <col min="9" max="9" width="14.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.886719" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -637,52 +679,112 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="57.6">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -692,8 +794,8 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -701,9 +803,9 @@
     <col min="1" max="1" width="17.55469" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.44141" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.66406" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.77734" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.44141" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.66406" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.886719" style="2"/>
     <col min="8" max="8" width="12.55469" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.21875" style="2" bestFit="1" customWidth="1"/>
@@ -711,10 +813,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -741,184 +843,184 @@
     </row>
     <row r="2" ht="28.8">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="28.8">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="28.8">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="57.6">
       <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="43.2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="43.2">
       <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="43.2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="28.8">
       <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/OrangeHRM_Project/src/test/resources/TestData/Locator_Data.xlsx
+++ b/OrangeHRM_Project/src/test/resources/TestData/Locator_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,13 @@
     <t>select_photo</t>
   </si>
   <si>
-    <t>//input[@type='file'][@class='oxd-file-input']</t>
+    <t>input[type='file']</t>
+  </si>
+  <si>
+    <t>//input[@type='file']</t>
+  </si>
+  <si>
+    <t>oxd-file-input</t>
   </si>
   <si>
     <t>addEmp_heading</t>
@@ -633,8 +639,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -794,8 +800,8 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -999,8 +1005,14 @@
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -1008,19 +1020,19 @@
     </row>
     <row r="11" ht="28.8">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
